--- a/EC/Train Runs 2016-05-10 (FRA Format).xlsx
+++ b/EC/Train Runs 2016-05-10 (FRA Format).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860" tabRatio="845" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860" tabRatio="845" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Summary" sheetId="15" r:id="rId1"/>
@@ -4849,19 +4849,19 @@
     <t>244-10</t>
   </si>
   <si>
-    <t>Emergency Braking Event, spent remainder of trip in ATC</t>
-  </si>
-  <si>
     <t>Premature signal downgrade</t>
   </si>
   <si>
-    <t>Train didn't fully stop at Station, onboard flashed prompts. Ran in ATC for rest of trip to keep schedule</t>
-  </si>
-  <si>
     <t>Poor GPS signal</t>
   </si>
   <si>
     <t>PTC Run Count (2016-05-10)</t>
+  </si>
+  <si>
+    <t>Onboard in-route failure</t>
+  </si>
+  <si>
+    <t>Wayside communication equipment failure at Sable</t>
   </si>
 </sst>
 </file>
@@ -5278,7 +5278,84 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="161">
+  <dxfs count="147">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6231,181 +6308,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -6624,15 +6526,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_1" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_2" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_2" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_1" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10329,21 +10231,21 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:G149">
-    <cfRule type="expression" dxfId="35" priority="4">
+    <cfRule type="expression" dxfId="46" priority="4">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="5">
+    <cfRule type="expression" dxfId="45" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="6">
+    <cfRule type="expression" dxfId="44" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B149">
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="43" priority="2">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="3">
+    <cfRule type="expression" dxfId="42" priority="3">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13939,26 +13841,26 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A148:G176 C3:G147">
-    <cfRule type="expression" dxfId="29" priority="5">
+    <cfRule type="expression" dxfId="40" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="6">
+    <cfRule type="expression" dxfId="39" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="7">
+    <cfRule type="expression" dxfId="38" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B147">
-    <cfRule type="expression" dxfId="26" priority="3">
+    <cfRule type="expression" dxfId="37" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="4">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G147">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17508,42 +17410,42 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A146:G174 C3:G145">
-    <cfRule type="expression" dxfId="22" priority="16">
+    <cfRule type="expression" dxfId="33" priority="16">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="17">
+    <cfRule type="expression" dxfId="32" priority="17">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="18">
+    <cfRule type="expression" dxfId="31" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B86 A88:B145 B87">
-    <cfRule type="expression" dxfId="19" priority="14">
+    <cfRule type="expression" dxfId="30" priority="14">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="15">
+    <cfRule type="expression" dxfId="29" priority="15">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G86 A88:G145 B87:G87">
-    <cfRule type="expression" dxfId="17" priority="12">
+    <cfRule type="expression" dxfId="28" priority="12">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="27" priority="6">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="26" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="25" priority="8">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="24" priority="5">
       <formula>NOT(ISBLANK($G87))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17575,8 +17477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM172"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:N6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17772,7 +17674,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>1224</v>
+        <v>1524</v>
       </c>
       <c r="J5" s="28" t="s">
         <v>7</v>
@@ -18609,7 +18511,7 @@
         <v>3.0127314814308193E-2</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -18989,7 +18891,7 @@
         <v>2.918981480615912E-2</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -19033,7 +18935,7 @@
         <v>2.7210648142499849E-2</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -19245,7 +19147,7 @@
         <v>2.2314814814308193E-2</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -19541,7 +19443,7 @@
         <v>2.5023148147738539E-2</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -19648,7 +19550,7 @@
         <v>1.5868055561440997E-2</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>1224</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20490,7 +20392,7 @@
         <v>3.1157407407590654E-2</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="131" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20790,7 +20692,7 @@
         <v>2.8171296296932269E-2</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="H144"/>
       <c r="I144"/>
@@ -21069,42 +20971,42 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A145:G172 C3:D144 F3:G144">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="22" priority="12">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="21" priority="13">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="14">
+    <cfRule type="expression" dxfId="20" priority="14">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85 A86:B144 A3:B84 E3:E144">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="19" priority="10">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="18" priority="11">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:D85 A86:D144 A3:D84 F3:G144">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="16" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>NOT(ISBLANK($G85))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21637,121 +21539,121 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:H4">
-    <cfRule type="expression" dxfId="135" priority="37">
+    <cfRule type="expression" dxfId="146" priority="37">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="38">
+    <cfRule type="expression" dxfId="145" priority="38">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="39">
+    <cfRule type="expression" dxfId="144" priority="39">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:G8 F5:H6">
-    <cfRule type="expression" dxfId="132" priority="34">
+    <cfRule type="expression" dxfId="143" priority="34">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="35">
+    <cfRule type="expression" dxfId="142" priority="35">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="36">
+    <cfRule type="expression" dxfId="141" priority="36">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:E8 H9:H11 H14:H18">
-    <cfRule type="expression" dxfId="129" priority="32">
+    <cfRule type="expression" dxfId="140" priority="32">
       <formula>$Q5&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="33">
+    <cfRule type="expression" dxfId="139" priority="33">
       <formula>$P5&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="127" priority="29">
+    <cfRule type="expression" dxfId="138" priority="29">
       <formula>$Q7&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="30">
+    <cfRule type="expression" dxfId="137" priority="30">
       <formula>$P7&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="125" priority="26">
+    <cfRule type="expression" dxfId="136" priority="26">
       <formula>$Q8&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="27">
+    <cfRule type="expression" dxfId="135" priority="27">
       <formula>$P8&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G11">
-    <cfRule type="expression" dxfId="123" priority="22">
+    <cfRule type="expression" dxfId="134" priority="22">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="23">
+    <cfRule type="expression" dxfId="133" priority="23">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="24">
+    <cfRule type="expression" dxfId="132" priority="24">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:E11">
-    <cfRule type="expression" dxfId="120" priority="20">
+    <cfRule type="expression" dxfId="131" priority="20">
       <formula>$Q9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="21">
+    <cfRule type="expression" dxfId="130" priority="21">
       <formula>$P9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:G13">
-    <cfRule type="expression" dxfId="118" priority="16">
+    <cfRule type="expression" dxfId="129" priority="16">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="17">
+    <cfRule type="expression" dxfId="128" priority="17">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="18">
+    <cfRule type="expression" dxfId="127" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:E13">
-    <cfRule type="expression" dxfId="115" priority="14">
+    <cfRule type="expression" dxfId="126" priority="14">
       <formula>$Q12&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="15">
+    <cfRule type="expression" dxfId="125" priority="15">
       <formula>$P12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="113" priority="11">
+    <cfRule type="expression" dxfId="124" priority="11">
       <formula>$Q12&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="12">
+    <cfRule type="expression" dxfId="123" priority="12">
       <formula>$P12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="111" priority="8">
+    <cfRule type="expression" dxfId="122" priority="8">
       <formula>$Q13&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="9">
+    <cfRule type="expression" dxfId="121" priority="9">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:G18">
-    <cfRule type="expression" dxfId="109" priority="4">
+    <cfRule type="expression" dxfId="120" priority="4">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="5">
+    <cfRule type="expression" dxfId="119" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="6">
+    <cfRule type="expression" dxfId="118" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:E18">
-    <cfRule type="expression" dxfId="106" priority="2">
+    <cfRule type="expression" dxfId="117" priority="2">
       <formula>$Q14&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="3">
+    <cfRule type="expression" dxfId="116" priority="3">
       <formula>$P14&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21874,7 +21776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
@@ -23305,7 +23207,7 @@
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="39" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="C92" s="74">
         <f>C77</f>
@@ -23323,16 +23225,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D34:F34"/>
     <mergeCell ref="D74:F74"/>
     <mergeCell ref="D66:F66"/>
     <mergeCell ref="D58:F58"/>
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D34:F34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26947,18 +26849,18 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="G87">
-    <cfRule type="expression" dxfId="96" priority="1">
+    <cfRule type="expression" dxfId="107" priority="1">
       <formula>$F87="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G86 G88:G146 A3:F146">
-    <cfRule type="expression" dxfId="95" priority="22">
+    <cfRule type="expression" dxfId="106" priority="22">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="23">
+    <cfRule type="expression" dxfId="105" priority="23">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="24">
+    <cfRule type="expression" dxfId="104" priority="24">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30220,37 +30122,37 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="E54:G61 E53:F53 E63:G141 E62:F62 E3:G52">
-    <cfRule type="expression" dxfId="92" priority="26">
+    <cfRule type="expression" dxfId="103" priority="26">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="27">
+    <cfRule type="expression" dxfId="102" priority="27">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="28">
+    <cfRule type="expression" dxfId="101" priority="28">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D141">
-    <cfRule type="expression" dxfId="89" priority="20">
+    <cfRule type="expression" dxfId="100" priority="20">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="21">
+    <cfRule type="expression" dxfId="99" priority="21">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="expression" dxfId="87" priority="5">
+    <cfRule type="expression" dxfId="98" priority="5">
       <formula>$P53&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="6">
+    <cfRule type="expression" dxfId="97" priority="6">
       <formula>$O53&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="expression" dxfId="85" priority="2">
+    <cfRule type="expression" dxfId="96" priority="2">
       <formula>$P62&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="3">
+    <cfRule type="expression" dxfId="95" priority="3">
       <formula>$O62&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33628,21 +33530,21 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:F3 E4:E10 F4:F146">
-    <cfRule type="expression" dxfId="80" priority="16">
+    <cfRule type="expression" dxfId="91" priority="16">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="17">
+    <cfRule type="expression" dxfId="90" priority="17">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="18">
+    <cfRule type="expression" dxfId="89" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D146 G3:G146">
-    <cfRule type="expression" dxfId="77" priority="14">
+    <cfRule type="expression" dxfId="88" priority="14">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="15">
+    <cfRule type="expression" dxfId="87" priority="15">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37003,45 +36905,45 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A148:G149 E22:G54 E21:F21 E56:G147 E55:F55 E3:G16 E18:G20 E17:F17">
-    <cfRule type="expression" dxfId="74" priority="22">
+    <cfRule type="expression" dxfId="85" priority="22">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="23">
+    <cfRule type="expression" dxfId="84" priority="23">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="24">
+    <cfRule type="expression" dxfId="83" priority="24">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D147">
-    <cfRule type="expression" dxfId="71" priority="20">
+    <cfRule type="expression" dxfId="82" priority="20">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="21">
+    <cfRule type="expression" dxfId="81" priority="21">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="69" priority="8">
+    <cfRule type="expression" dxfId="80" priority="8">
       <formula>$P21&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="9">
+    <cfRule type="expression" dxfId="79" priority="9">
       <formula>$O21&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="expression" dxfId="67" priority="5">
+    <cfRule type="expression" dxfId="78" priority="5">
       <formula>$P55&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="6">
+    <cfRule type="expression" dxfId="77" priority="6">
       <formula>$O55&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="65" priority="2">
+    <cfRule type="expression" dxfId="76" priority="2">
       <formula>$P17&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="3">
+    <cfRule type="expression" dxfId="75" priority="3">
       <formula>$O17&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40656,21 +40558,21 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A147:G176 E3:F146">
-    <cfRule type="expression" dxfId="59" priority="13">
+    <cfRule type="expression" dxfId="70" priority="13">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="14">
+    <cfRule type="expression" dxfId="69" priority="14">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="15">
+    <cfRule type="expression" dxfId="68" priority="15">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D146 G3:G146">
-    <cfRule type="expression" dxfId="56" priority="11">
+    <cfRule type="expression" dxfId="67" priority="11">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="12">
+    <cfRule type="expression" dxfId="66" priority="12">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44251,56 +44153,56 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A151:G175 C149:G150">
-    <cfRule type="expression" dxfId="53" priority="28">
+    <cfRule type="expression" dxfId="64" priority="28">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="29">
+    <cfRule type="expression" dxfId="63" priority="29">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="30">
+    <cfRule type="expression" dxfId="62" priority="30">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:B150">
-    <cfRule type="expression" dxfId="50" priority="26">
+    <cfRule type="expression" dxfId="61" priority="26">
       <formula>$P149&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="27">
+    <cfRule type="expression" dxfId="60" priority="27">
       <formula>$O149&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:G148">
-    <cfRule type="expression" dxfId="48" priority="10">
+    <cfRule type="expression" dxfId="59" priority="10">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="11">
+    <cfRule type="expression" dxfId="58" priority="11">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="12">
+    <cfRule type="expression" dxfId="57" priority="12">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B148">
-    <cfRule type="expression" dxfId="45" priority="8">
+    <cfRule type="expression" dxfId="56" priority="8">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="9">
+    <cfRule type="expression" dxfId="55" priority="9">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C148">
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="54" priority="5">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="6">
+    <cfRule type="expression" dxfId="53" priority="6">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D148">
-    <cfRule type="expression" dxfId="41" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="3">
+    <cfRule type="expression" dxfId="51" priority="3">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
